--- a/xlsx/艾奥瓦州_intext.xlsx
+++ b/xlsx/艾奥瓦州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
   <si>
     <t>艾奥瓦州</t>
   </si>
@@ -29,19 +29,19 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_艾奥瓦州</t>
+    <t>政策_政策_美国_艾奥瓦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A7%E7%93%A6%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>艾奧瓦州州旗</t>
+    <t>艾奥瓦州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Iowa</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%B0%BC%C2%B7%E6%81%A9%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>喬尼·恩斯特</t>
+    <t>乔尼·恩斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約市立大學</t>
+    <t>纽约市立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E5%BE%92</t>
@@ -263,31 +263,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南達科他州</t>
+    <t>南达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E8%BE%BE%E6%8B%89%E7%9A%AE%E5%85%B9</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%9F%8E</t>
   </si>
   <si>
-    <t>蘇城</t>
+    <t>苏城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E9%90%B5%E7%9B%A7_(%E8%89%BE%E5%A5%A7%E7%93%A6%E5%B7%9E)</t>
   </si>
   <si>
-    <t>滑鐵盧 (艾奧瓦州)</t>
+    <t>滑铁卢 (艾奥瓦州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A7%86%E6%96%AF</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%A2%A8%E7%B8%A3</t>
   </si>
   <si>
-    <t>山梨縣</t>
+    <t>山梨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%8A%A0%E6%95%A6</t>
   </si>
   <si>
-    <t>猶加敦</t>
+    <t>犹加敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -389,49 +389,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E5%98%89%E6%A8%93</t>
   </si>
   <si>
-    <t>登嘉樓</t>
+    <t>登嘉楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%9C%81_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>臺灣省 (中華民國)</t>
+    <t>台湾省 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E5%A4%AB%E7%BE%85%E6%B3%A2%E7%88%BE%E9%82%8A%E7%96%86%E5%8D%80</t>
   </si>
   <si>
-    <t>斯塔夫羅波爾邊疆區</t>
+    <t>斯塔夫罗波尔边疆区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%88%BE%E5%8D%A1%E7%91%9F</t>
   </si>
   <si>
-    <t>切爾卡瑟</t>
+    <t>切尔卡瑟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%89%98%E5%A4%A7%E5%8C%BA</t>
@@ -449,13 +449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E4%BB%80%E8%92%82%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>普里什蒂納州</t>
+    <t>普里什蒂纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%E6%96%AF%E7%B8%A3_(%E6%84%9B%E9%98%BF%E8%8F%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>瓊斯縣 (愛阿華州)</t>
+    <t>琼斯县 (爱阿华州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%B0%A3%E7%90%83</t>
   </si>
   <si>
-    <t>熱氣球</t>
+    <t>热气球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E9%86%87</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%AF%94%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜比克大學</t>
+    <t>杜比克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/29%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -515,31 +515,31 @@
     <t>https://zh.wikipedia.org/wiki/35%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>35號州際公路</t>
+    <t>35号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/80%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>80號州際公路</t>
+    <t>80号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%A4%A7%E9%81%B8</t>
   </si>
   <si>
-    <t>美國總統大選</t>
+    <t>美国总统大选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%A8%E5%9C%98%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>黨團會議</t>
+    <t>党团会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E9%81%B8</t>
   </si>
   <si>
-    <t>初選</t>
+    <t>初选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%B0%8F%E7%86%8A</t>
@@ -569,25 +569,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B8%82%E7%9A%87%E5%AE%B6</t>
   </si>
   <si>
-    <t>堪薩斯市皇家</t>
+    <t>堪萨斯市皇家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%AE%89%E9%82%A3%E7%BD%95%E5%A4%A9%E4%BD%BF</t>
   </si>
   <si>
-    <t>洛杉磯安那罕天使</t>
+    <t>洛杉矶安那罕天使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E7%B4%85%E9%9B%80</t>
   </si>
   <si>
-    <t>聖路易紅雀</t>
+    <t>圣路易红雀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E9%81%8A%E9%A8%8E%E5%85%B5_(%E6%A3%92%E7%90%83)</t>
   </si>
   <si>
-    <t>德克薩斯遊騎兵 (棒球)</t>
+    <t>德克萨斯游骑兵 (棒球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -815,9 +815,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -881,19 +878,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -947,25 +944,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -5333,7 +5330,7 @@
         <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>88</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5359,10 +5356,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5388,10 +5385,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5417,10 +5414,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5446,10 +5443,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5475,10 +5472,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5504,10 +5501,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5533,10 +5530,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5591,10 +5588,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5620,10 +5617,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5649,10 +5646,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5678,10 +5675,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5707,10 +5704,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5736,10 +5733,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5765,10 +5762,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5794,10 +5791,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5823,10 +5820,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5852,10 +5849,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5881,10 +5878,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5910,10 +5907,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5939,10 +5936,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5968,10 +5965,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -5997,10 +5994,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6026,10 +6023,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6055,10 +6052,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6084,10 +6081,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>314</v>
+      </c>
+      <c r="F164" t="s">
         <v>315</v>
-      </c>
-      <c r="F164" t="s">
-        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6113,10 +6110,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>316</v>
+      </c>
+      <c r="F165" t="s">
         <v>317</v>
-      </c>
-      <c r="F165" t="s">
-        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6142,10 +6139,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
         <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6171,10 +6168,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6200,10 +6197,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F168" t="s">
         <v>323</v>
-      </c>
-      <c r="F168" t="s">
-        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
